--- a/demo_data/comparative_ct/Freja/results/qpcr.xlsx
+++ b/demo_data/comparative_ct/Freja/results/qpcr.xlsx
@@ -12,13 +12,15 @@
     <sheet name="summary" r:id="rId6" sheetId="4"/>
     <sheet name="targets" r:id="rId7" sheetId="5"/>
     <sheet name="relative_expression" r:id="rId8" sheetId="6"/>
-    <sheet name="ttest_relative_expression_FAN1" r:id="rId9" sheetId="7"/>
+    <sheet name="quantification" r:id="rId9" sheetId="7"/>
+    <sheet name="quantification_clean" r:id="rId10" sheetId="8"/>
+    <sheet name="ttest_relative_expression_FAN1" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="515">
   <si>
     <t>filename</t>
   </si>
@@ -1319,6 +1321,9 @@
     <t>treatment</t>
   </si>
   <si>
+    <t>calibrator_group</t>
+  </si>
+  <si>
     <t>calibrator</t>
   </si>
   <si>
@@ -1409,6 +1414,9 @@
     <t>FAN1 shRNA</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -1508,6 +1516,9 @@
     <t>Default</t>
   </si>
   <si>
+    <t>relative_expression</t>
+  </si>
+  <si>
     <t>.y.</t>
   </si>
   <si>
@@ -1542,9 +1553,6 @@
   </si>
   <si>
     <t>groups</t>
-  </si>
-  <si>
-    <t>relative_expression</t>
   </si>
   <si>
     <t>ns</t>
@@ -16886,22 +16894,25 @@
         <v>433</v>
       </c>
       <c r="K1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
-        <v>434</v>
-      </c>
       <c r="M1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>435</v>
       </c>
       <c r="O1" t="s">
         <v>436</v>
       </c>
       <c r="P1" t="s">
         <v>437</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -16915,42 +16926,45 @@
         <v>#N/A</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J2" t="n">
+        <v>461</v>
+      </c>
+      <c r="J2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>226</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>220</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>15.881054878234863</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1.0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -16965,42 +16979,45 @@
         <v>#N/A</v>
       </c>
       <c r="D3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
         <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J3" t="n">
+        <v>461</v>
+      </c>
+      <c r="J3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>226</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>220</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>15.748677253723145</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>2.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1.5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -17015,42 +17032,45 @@
         <v>#N/A</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F4" t="s">
         <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J4" t="n">
+        <v>461</v>
+      </c>
+      <c r="J4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>226</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>220</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>15.883685111999512</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>3.0</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1.5</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17065,13 +17085,13 @@
         <v>#N/A</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G5" t="e">
         <v>#N/A</v>
@@ -17085,22 +17105,25 @@
       <c r="J5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="s">
         <v>226</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>220</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>28.58591079711914</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1.0</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1.5</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17115,13 +17138,13 @@
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G6" t="e">
         <v>#N/A</v>
@@ -17135,22 +17158,25 @@
       <c r="J6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="s">
         <v>226</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>220</v>
       </c>
-      <c r="M6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="N6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.0</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1.5</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17165,42 +17191,45 @@
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F7" t="s">
         <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I7" t="s">
-        <v>461</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" t="s">
+        <v>462</v>
+      </c>
+      <c r="J7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>226</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>220</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>15.974312782287598</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>1.0</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17215,42 +17244,45 @@
         <v>#N/A</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
         <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I8" t="s">
-        <v>461</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="s">
         <v>226</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>220</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>15.92764377593994</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>2.0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17265,42 +17297,45 @@
         <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
         <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
-        <v>461</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="s">
         <v>226</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>220</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>16.052045822143555</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>3.0</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17315,13 +17350,13 @@
         <v>#N/A</v>
       </c>
       <c r="D10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
@@ -17335,22 +17370,25 @@
       <c r="J10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="s">
         <v>226</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>220</v>
       </c>
-      <c r="M10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.0</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1.5</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17365,13 +17403,13 @@
         <v>#N/A</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G11" t="e">
         <v>#N/A</v>
@@ -17385,22 +17423,25 @@
       <c r="J11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="s">
         <v>226</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>220</v>
       </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="N11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" t="n">
         <v>2.0</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1.5</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17415,42 +17456,45 @@
         <v>#N/A</v>
       </c>
       <c r="D12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I12" t="s">
-        <v>462</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K12" t="s">
+        <v>463</v>
+      </c>
+      <c r="J12" t="s">
+        <v>464</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="s">
         <v>226</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>220</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>16.736127853393555</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>1.0</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1.5</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17465,42 +17509,45 @@
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I13" t="s">
-        <v>462</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="s">
+        <v>463</v>
+      </c>
+      <c r="J13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="s">
         <v>226</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>220</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>16.876745223999023</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>2.0</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1.5</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17515,42 +17562,45 @@
         <v>#N/A</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I14" t="s">
-        <v>462</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="s">
         <v>226</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>220</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>16.831058502197266</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>3.0</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>1.5</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17565,13 +17615,13 @@
         <v>#N/A</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G15" t="e">
         <v>#N/A</v>
@@ -17585,22 +17635,25 @@
       <c r="J15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="s">
         <v>226</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>220</v>
       </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="N15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" t="n">
         <v>3.0</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1.5</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17615,13 +17668,13 @@
         <v>#N/A</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G16" t="e">
         <v>#N/A</v>
@@ -17635,22 +17688,25 @@
       <c r="J16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="s">
         <v>226</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>220</v>
       </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="n">
         <v>3.0</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1.5</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17665,42 +17721,45 @@
         <v>#N/A</v>
       </c>
       <c r="D17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F17" t="s">
         <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I17" t="s">
-        <v>460</v>
-      </c>
-      <c r="J17" t="n">
+        <v>461</v>
+      </c>
+      <c r="J17" t="s">
+        <v>464</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>226</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>220</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>15.988773345947266</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>1.0</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>1.5</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17715,42 +17774,45 @@
         <v>#N/A</v>
       </c>
       <c r="D18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F18" t="s">
         <v>216</v>
       </c>
       <c r="G18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I18" t="s">
-        <v>460</v>
-      </c>
-      <c r="J18" t="n">
+        <v>461</v>
+      </c>
+      <c r="J18" t="s">
+        <v>464</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.0</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>226</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>220</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>15.94283962249756</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>2.0</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>1.5</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17765,42 +17827,45 @@
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F19" t="s">
         <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I19" t="s">
-        <v>460</v>
-      </c>
-      <c r="J19" t="n">
+        <v>461</v>
+      </c>
+      <c r="J19" t="s">
+        <v>464</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>226</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>220</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>16.08729362487793</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>3.0</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>1.5</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17815,42 +17880,45 @@
         <v>#N/A</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F20" t="s">
         <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="s">
+        <v>462</v>
+      </c>
+      <c r="J20" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="s">
         <v>226</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>220</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>16.095287322998047</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>1.0</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>1.5</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17865,42 +17933,45 @@
         <v>#N/A</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
         <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I21" t="s">
-        <v>461</v>
-      </c>
-      <c r="J21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" t="s">
+        <v>464</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="s">
         <v>226</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>220</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>16.011274337768555</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>2.0</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1.5</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17915,42 +17986,45 @@
         <v>#N/A</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F22" t="s">
         <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I22" t="s">
-        <v>461</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="s">
+        <v>462</v>
+      </c>
+      <c r="J22" t="s">
+        <v>464</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="s">
         <v>226</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>220</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>15.98361873626709</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>3.0</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>1.5</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17965,42 +18039,45 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I23" t="s">
-        <v>462</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K23" t="s">
+        <v>463</v>
+      </c>
+      <c r="J23" t="s">
+        <v>464</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="s">
         <v>226</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>220</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>17.515544891357422</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>1.0</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>1.5</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18015,42 +18092,45 @@
         <v>#N/A</v>
       </c>
       <c r="D24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I24" t="s">
-        <v>462</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J24" t="s">
+        <v>464</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="s">
         <v>226</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>220</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>17.5042781829834</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>2.0</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1.5</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18065,42 +18145,45 @@
         <v>#N/A</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I25" t="s">
-        <v>462</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="s">
+        <v>463</v>
+      </c>
+      <c r="J25" t="s">
+        <v>464</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="s">
         <v>226</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>220</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>17.411714553833008</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>3.0</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>1.5</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>336</v>
       </c>
     </row>
@@ -18115,13 +18198,13 @@
         <v>#N/A</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G26" t="e">
         <v>#N/A</v>
@@ -18135,22 +18218,25 @@
       <c r="J26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="s">
         <v>225</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>219</v>
       </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.0</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>1.5</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18165,13 +18251,13 @@
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G27" t="e">
         <v>#N/A</v>
@@ -18185,22 +18271,25 @@
       <c r="J27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="s">
         <v>225</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>219</v>
       </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="N27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.0</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>1.5</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18215,13 +18304,13 @@
         <v>#N/A</v>
       </c>
       <c r="D28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G28" t="e">
         <v>#N/A</v>
@@ -18235,22 +18324,25 @@
       <c r="J28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="s">
         <v>225</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>219</v>
       </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="N28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="n">
         <v>2.0</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18265,13 +18357,13 @@
         <v>#N/A</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G29" t="e">
         <v>#N/A</v>
@@ -18285,22 +18377,25 @@
       <c r="J29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="s">
         <v>225</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>219</v>
       </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="n">
         <v>2.0</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>1.5</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18315,13 +18410,13 @@
         <v>#N/A</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
@@ -18335,22 +18430,25 @@
       <c r="J30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="s">
         <v>225</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>219</v>
       </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="n">
         <v>3.0</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>1.5</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18365,13 +18463,13 @@
         <v>#N/A</v>
       </c>
       <c r="D31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
@@ -18385,22 +18483,25 @@
       <c r="J31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="s">
         <v>225</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>219</v>
       </c>
-      <c r="M31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="N31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="n">
         <v>3.0</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>1.5</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18415,42 +18516,45 @@
         <v>#N/A</v>
       </c>
       <c r="D32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F32" t="s">
         <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I32" t="s">
-        <v>460</v>
-      </c>
-      <c r="J32" t="n">
+        <v>461</v>
+      </c>
+      <c r="J32" t="s">
+        <v>464</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.0</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>225</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>219</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>24.048627853393555</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>1.0</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>1.5</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18465,42 +18569,45 @@
         <v>#N/A</v>
       </c>
       <c r="D33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F33" t="s">
         <v>211</v>
       </c>
       <c r="G33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I33" t="s">
-        <v>460</v>
-      </c>
-      <c r="J33" t="n">
+        <v>461</v>
+      </c>
+      <c r="J33" t="s">
+        <v>464</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.0</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>225</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>219</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>24.19248580932617</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>2.0</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>1.5</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>336</v>
       </c>
     </row>
@@ -18515,42 +18622,45 @@
         <v>#N/A</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I34" t="s">
-        <v>460</v>
-      </c>
-      <c r="J34" t="n">
+        <v>461</v>
+      </c>
+      <c r="J34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.0</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>225</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>219</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>24.071571350097656</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>3.0</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>1.5</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18565,13 +18675,13 @@
         <v>#N/A</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -18585,22 +18695,25 @@
       <c r="J35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="s">
         <v>225</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>219</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>37.7646484375</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>4.0</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>1.5</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18615,13 +18728,13 @@
         <v>#N/A</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
@@ -18635,22 +18748,25 @@
       <c r="J36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="s">
         <v>225</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>219</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>38.50731658935546</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>4.0</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>1.5</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18665,42 +18781,45 @@
         <v>#N/A</v>
       </c>
       <c r="D37" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F37" t="s">
         <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I37" t="s">
-        <v>461</v>
-      </c>
-      <c r="J37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="s">
+        <v>462</v>
+      </c>
+      <c r="J37" t="s">
+        <v>464</v>
+      </c>
+      <c r="K37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="s">
         <v>225</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>219</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>24.418079376220703</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>1.0</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>1.5</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18715,42 +18834,45 @@
         <v>#N/A</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F38" t="s">
         <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I38" t="s">
-        <v>461</v>
-      </c>
-      <c r="J38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J38" t="s">
+        <v>464</v>
+      </c>
+      <c r="K38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="s">
         <v>225</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>219</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>24.3443660736084</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>2.0</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>1.5</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18765,42 +18887,45 @@
         <v>#N/A</v>
       </c>
       <c r="D39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F39" t="s">
         <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H39" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I39" t="s">
-        <v>461</v>
-      </c>
-      <c r="J39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K39" t="s">
+        <v>462</v>
+      </c>
+      <c r="J39" t="s">
+        <v>464</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="s">
         <v>225</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>219</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>24.465234756469727</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>3.0</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>1.5</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18815,13 +18940,13 @@
         <v>#N/A</v>
       </c>
       <c r="D40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
@@ -18835,22 +18960,25 @@
       <c r="J40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="s">
         <v>225</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>219</v>
       </c>
-      <c r="M40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="N40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="n">
         <v>5.0</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>1.5</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18865,13 +18993,13 @@
         <v>#N/A</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -18885,22 +19013,25 @@
       <c r="J41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="s">
         <v>225</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>219</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>38.497196197509766</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>5.0</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>1.5</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18915,42 +19046,45 @@
         <v>#N/A</v>
       </c>
       <c r="D42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I42" t="s">
-        <v>462</v>
-      </c>
-      <c r="J42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K42" t="s">
+        <v>463</v>
+      </c>
+      <c r="J42" t="s">
+        <v>464</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="s">
         <v>225</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>219</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>25.72334289550781</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>1.0</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>1.5</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>336</v>
       </c>
     </row>
@@ -18965,42 +19099,45 @@
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H43" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I43" t="s">
-        <v>462</v>
-      </c>
-      <c r="J43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K43" t="s">
+        <v>463</v>
+      </c>
+      <c r="J43" t="s">
+        <v>464</v>
+      </c>
+      <c r="K43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="s">
         <v>225</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>219</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>26.008304595947266</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>2.0</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>1.5</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19015,42 +19152,45 @@
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E44" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H44" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I44" t="s">
-        <v>462</v>
-      </c>
-      <c r="J44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K44" t="s">
+        <v>463</v>
+      </c>
+      <c r="J44" t="s">
+        <v>464</v>
+      </c>
+      <c r="K44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="s">
         <v>225</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>219</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>26.00940704345703</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>3.0</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>1.5</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19065,13 +19205,13 @@
         <v>#N/A</v>
       </c>
       <c r="D45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G45" t="e">
         <v>#N/A</v>
@@ -19085,22 +19225,25 @@
       <c r="J45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="s">
         <v>225</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>219</v>
       </c>
-      <c r="M45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="n">
         <v>6.0</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>1.5</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19115,13 +19258,13 @@
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G46" t="e">
         <v>#N/A</v>
@@ -19135,22 +19278,25 @@
       <c r="J46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="s">
         <v>225</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>219</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>36.92498016357422</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>6.0</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>1.5</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>336</v>
       </c>
     </row>
@@ -19165,42 +19311,45 @@
         <v>#N/A</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I47" t="s">
-        <v>460</v>
-      </c>
-      <c r="J47" t="n">
+        <v>461</v>
+      </c>
+      <c r="J47" t="s">
+        <v>464</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.0</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>225</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>219</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>24.52137565612793</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>1.0</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>1.5</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19215,42 +19364,45 @@
         <v>#N/A</v>
       </c>
       <c r="D48" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F48" t="s">
         <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H48" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I48" t="s">
-        <v>460</v>
-      </c>
-      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="J48" t="s">
+        <v>464</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.0</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>225</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>219</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>24.36501121520996</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>2.0</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>1.5</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19265,42 +19417,45 @@
         <v>#N/A</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E49" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F49" t="s">
         <v>216</v>
       </c>
       <c r="G49" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I49" t="s">
-        <v>460</v>
-      </c>
-      <c r="J49" t="n">
+        <v>461</v>
+      </c>
+      <c r="J49" t="s">
+        <v>464</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.0</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>225</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>219</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>24.68910789489746</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>3.0</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>1.5</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19315,42 +19470,45 @@
         <v>#N/A</v>
       </c>
       <c r="D50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
       </c>
       <c r="G50" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H50" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I50" t="s">
-        <v>461</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="s">
+        <v>462</v>
+      </c>
+      <c r="J50" t="s">
+        <v>464</v>
+      </c>
+      <c r="K50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="s">
         <v>225</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>219</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>23.751628875732425</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>1.0</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>1.5</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19365,42 +19523,45 @@
         <v>#N/A</v>
       </c>
       <c r="D51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F51" t="s">
         <v>217</v>
       </c>
       <c r="G51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H51" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I51" t="s">
-        <v>461</v>
-      </c>
-      <c r="J51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="s">
+        <v>462</v>
+      </c>
+      <c r="J51" t="s">
+        <v>464</v>
+      </c>
+      <c r="K51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="s">
         <v>225</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>219</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>24.006200790405277</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>2.0</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>1.5</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19415,42 +19576,45 @@
         <v>#N/A</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F52" t="s">
         <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H52" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
-      </c>
-      <c r="J52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" t="s">
+        <v>464</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="s">
         <v>225</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>219</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>24.29122543334961</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>3.0</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>1.5</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19465,42 +19629,45 @@
         <v>#N/A</v>
       </c>
       <c r="D53" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E53" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H53" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
-      </c>
-      <c r="J53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="s">
+        <v>463</v>
+      </c>
+      <c r="J53" t="s">
+        <v>464</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="s">
         <v>225</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>219</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>25.88670921325684</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>1.0</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>1.5</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19515,42 +19682,45 @@
         <v>#N/A</v>
       </c>
       <c r="D54" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E54" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H54" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I54" t="s">
-        <v>462</v>
-      </c>
-      <c r="J54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J54" t="s">
+        <v>464</v>
+      </c>
+      <c r="K54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" t="s">
         <v>225</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>219</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>26.408411026000977</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>2.0</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>1.5</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19565,42 +19735,45 @@
         <v>#N/A</v>
       </c>
       <c r="D55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G55" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H55" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="s">
         <v>225</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>219</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>26.67100524902344</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>3.0</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>1.5</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19615,42 +19788,45 @@
         <v>#N/A</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
         <v>211</v>
       </c>
       <c r="G56" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H56" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I56" t="s">
-        <v>460</v>
-      </c>
-      <c r="J56" t="n">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>464</v>
+      </c>
+      <c r="K56" t="n">
         <v>1.0</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>226</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>221</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>17.43703842163086</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>1.0</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>1.5</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>336</v>
       </c>
     </row>
@@ -19665,42 +19841,45 @@
         <v>#N/A</v>
       </c>
       <c r="D57" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F57" t="s">
         <v>211</v>
       </c>
       <c r="G57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H57" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
-      </c>
-      <c r="J57" t="n">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="n">
         <v>1.0</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>226</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>221</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>17.841623306274414</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>2.0</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>1.5</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19715,42 +19894,45 @@
         <v>#N/A</v>
       </c>
       <c r="D58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F58" t="s">
         <v>211</v>
       </c>
       <c r="G58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
-      </c>
-      <c r="J58" t="n">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" t="n">
         <v>1.0</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>226</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>221</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>17.80618667602539</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>3.0</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>1.5</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19765,13 +19947,13 @@
         <v>#N/A</v>
       </c>
       <c r="D59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E59" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G59" t="e">
         <v>#N/A</v>
@@ -19785,22 +19967,25 @@
       <c r="J59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" t="s">
         <v>226</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>221</v>
       </c>
-      <c r="M59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N59" t="n">
+      <c r="N59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.0</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>1.5</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19815,13 +20000,13 @@
         <v>#N/A</v>
       </c>
       <c r="D60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G60" t="e">
         <v>#N/A</v>
@@ -19835,22 +20020,25 @@
       <c r="J60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L60" t="s">
         <v>226</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>221</v>
       </c>
-      <c r="M60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N60" t="n">
+      <c r="N60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.0</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>1.5</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19865,42 +20053,45 @@
         <v>#N/A</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E61" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F61" t="s">
         <v>214</v>
       </c>
       <c r="G61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H61" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I61" t="s">
-        <v>461</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+      <c r="J61" t="s">
+        <v>464</v>
+      </c>
+      <c r="K61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" t="s">
         <v>226</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>221</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>17.95647430419922</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>1.0</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19915,42 +20106,45 @@
         <v>#N/A</v>
       </c>
       <c r="D62" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F62" t="s">
         <v>214</v>
       </c>
       <c r="G62" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H62" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I62" t="s">
-        <v>461</v>
-      </c>
-      <c r="J62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="s">
+        <v>462</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" t="s">
         <v>226</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>221</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>17.999616622924805</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>2.0</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>1.5</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19965,42 +20159,45 @@
         <v>#N/A</v>
       </c>
       <c r="D63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F63" t="s">
         <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I63" t="s">
-        <v>461</v>
-      </c>
-      <c r="J63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K63" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L63" t="s">
         <v>226</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>221</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>18.01475715637207</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>3.0</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>1.5</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20015,13 +20212,13 @@
         <v>#N/A</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G64" t="e">
         <v>#N/A</v>
@@ -20035,22 +20232,25 @@
       <c r="J64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L64" t="s">
         <v>226</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>221</v>
       </c>
-      <c r="M64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N64" t="n">
+      <c r="N64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O64" t="n">
         <v>2.0</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>1.5</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20065,13 +20265,13 @@
         <v>#N/A</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G65" t="e">
         <v>#N/A</v>
@@ -20085,22 +20285,25 @@
       <c r="J65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" t="s">
         <v>226</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>221</v>
       </c>
-      <c r="M65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N65" t="n">
+      <c r="N65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O65" t="n">
         <v>2.0</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>1.5</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20115,42 +20318,45 @@
         <v>#N/A</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H66" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I66" t="s">
-        <v>462</v>
-      </c>
-      <c r="J66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K66" t="s">
+        <v>463</v>
+      </c>
+      <c r="J66" t="s">
+        <v>464</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="s">
         <v>226</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>221</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>19.168235778808597</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>1.0</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>1.5</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20165,42 +20371,45 @@
         <v>#N/A</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H67" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I67" t="s">
-        <v>462</v>
-      </c>
-      <c r="J67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K67" t="s">
+        <v>463</v>
+      </c>
+      <c r="J67" t="s">
+        <v>464</v>
+      </c>
+      <c r="K67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" t="s">
         <v>226</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>221</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>19.238454818725582</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>2.0</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>1.5</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20215,42 +20424,45 @@
         <v>#N/A</v>
       </c>
       <c r="D68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I68" t="s">
-        <v>462</v>
-      </c>
-      <c r="J68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K68" t="s">
+        <v>463</v>
+      </c>
+      <c r="J68" t="s">
+        <v>464</v>
+      </c>
+      <c r="K68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L68" t="s">
         <v>226</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>221</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>19.27349281311035</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>3.0</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>1.5</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20265,13 +20477,13 @@
         <v>#N/A</v>
       </c>
       <c r="D69" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G69" t="e">
         <v>#N/A</v>
@@ -20285,22 +20497,25 @@
       <c r="J69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L69" t="s">
         <v>226</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>221</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>26.615196228027344</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>3.0</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>1.5</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20315,13 +20530,13 @@
         <v>#N/A</v>
       </c>
       <c r="D70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G70" t="e">
         <v>#N/A</v>
@@ -20335,22 +20550,25 @@
       <c r="J70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L70" t="s">
         <v>226</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>221</v>
       </c>
-      <c r="M70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N70" t="n">
+      <c r="N70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O70" t="n">
         <v>3.0</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>1.5</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20365,42 +20583,45 @@
         <v>#N/A</v>
       </c>
       <c r="D71" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F71" t="s">
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H71" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I71" t="s">
-        <v>460</v>
-      </c>
-      <c r="J71" t="n">
+        <v>461</v>
+      </c>
+      <c r="J71" t="s">
+        <v>464</v>
+      </c>
+      <c r="K71" t="n">
         <v>1.0</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>226</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>221</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>18.02545166015625</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>1.0</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>1.5</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20415,42 +20636,45 @@
         <v>#N/A</v>
       </c>
       <c r="D72" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E72" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F72" t="s">
         <v>216</v>
       </c>
       <c r="G72" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I72" t="s">
-        <v>460</v>
-      </c>
-      <c r="J72" t="n">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" t="n">
         <v>1.0</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>226</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>221</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>17.968345642089844</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>2.0</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>1.5</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20465,42 +20689,45 @@
         <v>#N/A</v>
       </c>
       <c r="D73" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E73" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F73" t="s">
         <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H73" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I73" t="s">
-        <v>460</v>
-      </c>
-      <c r="J73" t="n">
+        <v>461</v>
+      </c>
+      <c r="J73" t="s">
+        <v>464</v>
+      </c>
+      <c r="K73" t="n">
         <v>1.0</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>226</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>221</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>18.06038856506348</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>3.0</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>1.5</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20515,42 +20742,45 @@
         <v>#N/A</v>
       </c>
       <c r="D74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E74" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
         <v>217</v>
       </c>
       <c r="G74" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I74" t="s">
-        <v>461</v>
-      </c>
-      <c r="J74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K74" t="s">
+        <v>462</v>
+      </c>
+      <c r="J74" t="s">
+        <v>464</v>
+      </c>
+      <c r="K74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="s">
         <v>226</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>221</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>17.516263961791992</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1.0</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>1.5</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20565,42 +20795,45 @@
         <v>#N/A</v>
       </c>
       <c r="D75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E75" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F75" t="s">
         <v>217</v>
       </c>
       <c r="G75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H75" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I75" t="s">
-        <v>461</v>
-      </c>
-      <c r="J75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K75" t="s">
+        <v>462</v>
+      </c>
+      <c r="J75" t="s">
+        <v>464</v>
+      </c>
+      <c r="K75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="s">
         <v>226</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>221</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>17.518444061279297</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>2.0</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>1.5</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20615,42 +20848,45 @@
         <v>#N/A</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F76" t="s">
         <v>217</v>
       </c>
       <c r="G76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I76" t="s">
-        <v>461</v>
-      </c>
-      <c r="J76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K76" t="s">
+        <v>462</v>
+      </c>
+      <c r="J76" t="s">
+        <v>464</v>
+      </c>
+      <c r="K76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L76" t="s">
         <v>226</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>221</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>17.775653839111328</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>3.0</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>1.5</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>336</v>
       </c>
     </row>
@@ -20665,42 +20901,45 @@
         <v>#N/A</v>
       </c>
       <c r="D77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E77" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I77" t="s">
-        <v>462</v>
-      </c>
-      <c r="J77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K77" t="s">
+        <v>463</v>
+      </c>
+      <c r="J77" t="s">
+        <v>464</v>
+      </c>
+      <c r="K77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L77" t="s">
         <v>226</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>221</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>20.2982234954834</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>1.0</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>1.5</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20715,42 +20954,45 @@
         <v>#N/A</v>
       </c>
       <c r="D78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I78" t="s">
-        <v>462</v>
-      </c>
-      <c r="J78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K78" t="s">
+        <v>463</v>
+      </c>
+      <c r="J78" t="s">
+        <v>464</v>
+      </c>
+      <c r="K78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L78" t="s">
         <v>226</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>221</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>20.68561363220215</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>2.0</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>1.5</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>336</v>
       </c>
     </row>
@@ -20765,42 +21007,45 @@
         <v>#N/A</v>
       </c>
       <c r="D79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E79" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G79" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I79" t="s">
-        <v>462</v>
-      </c>
-      <c r="J79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K79" t="s">
+        <v>463</v>
+      </c>
+      <c r="J79" t="s">
+        <v>464</v>
+      </c>
+      <c r="K79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L79" t="s">
         <v>226</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>221</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>20.26557159423828</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>3.0</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>1.5</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20815,42 +21060,45 @@
         <v>#N/A</v>
       </c>
       <c r="D80" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F80" t="s">
         <v>211</v>
       </c>
       <c r="G80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H80" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I80" t="s">
-        <v>460</v>
-      </c>
-      <c r="J80" t="n">
+        <v>461</v>
+      </c>
+      <c r="J80" t="s">
+        <v>464</v>
+      </c>
+      <c r="K80" t="n">
         <v>1.0</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>225</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>222</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>19.157270431518555</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>1.0</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>1.5</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>336</v>
       </c>
     </row>
@@ -20865,42 +21113,45 @@
         <v>#N/A</v>
       </c>
       <c r="D81" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F81" t="s">
         <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I81" t="s">
-        <v>460</v>
-      </c>
-      <c r="J81" t="n">
+        <v>461</v>
+      </c>
+      <c r="J81" t="s">
+        <v>464</v>
+      </c>
+      <c r="K81" t="n">
         <v>1.0</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>225</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>222</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>19.487977981567383</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>2.0</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>1.5</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20915,42 +21166,45 @@
         <v>#N/A</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F82" t="s">
         <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I82" t="s">
-        <v>460</v>
-      </c>
-      <c r="J82" t="n">
+        <v>461</v>
+      </c>
+      <c r="J82" t="s">
+        <v>464</v>
+      </c>
+      <c r="K82" t="n">
         <v>1.0</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>225</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>222</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>19.4588565826416</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>3.0</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>1.5</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20965,13 +21219,13 @@
         <v>#N/A</v>
       </c>
       <c r="D83" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G83" t="e">
         <v>#N/A</v>
@@ -20985,22 +21239,25 @@
       <c r="J83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L83" t="s">
         <v>225</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>222</v>
       </c>
-      <c r="M83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N83" t="n">
+      <c r="N83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O83" t="n">
         <v>1.0</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>1.5</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21015,13 +21272,13 @@
         <v>#N/A</v>
       </c>
       <c r="D84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
@@ -21035,22 +21292,25 @@
       <c r="J84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L84" t="s">
         <v>225</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>222</v>
       </c>
-      <c r="M84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N84" t="n">
+      <c r="N84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O84" t="n">
         <v>1.0</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>1.5</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21065,42 +21325,45 @@
         <v>#N/A</v>
       </c>
       <c r="D85" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F85" t="s">
         <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I85" t="s">
-        <v>461</v>
-      </c>
-      <c r="J85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K85" t="s">
+        <v>462</v>
+      </c>
+      <c r="J85" t="s">
+        <v>464</v>
+      </c>
+      <c r="K85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="s">
         <v>225</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>222</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>19.27448844909668</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>1.0</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>1.5</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21115,42 +21378,45 @@
         <v>#N/A</v>
       </c>
       <c r="D86" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E86" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F86" t="s">
         <v>214</v>
       </c>
       <c r="G86" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H86" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I86" t="s">
-        <v>461</v>
-      </c>
-      <c r="J86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="s">
+        <v>462</v>
+      </c>
+      <c r="J86" t="s">
+        <v>464</v>
+      </c>
+      <c r="K86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="s">
         <v>225</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>222</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>19.598133087158203</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>2.0</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>1.5</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21165,42 +21431,45 @@
         <v>#N/A</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F87" t="s">
         <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H87" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I87" t="s">
-        <v>461</v>
-      </c>
-      <c r="J87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K87" t="s">
+        <v>462</v>
+      </c>
+      <c r="J87" t="s">
+        <v>464</v>
+      </c>
+      <c r="K87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L87" t="s">
         <v>225</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>222</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>19.78999137878418</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>3.0</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>1.5</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21215,13 +21484,13 @@
         <v>#N/A</v>
       </c>
       <c r="D88" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G88" t="e">
         <v>#N/A</v>
@@ -21235,22 +21504,25 @@
       <c r="J88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L88" t="s">
         <v>225</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>222</v>
       </c>
-      <c r="M88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N88" t="n">
+      <c r="N88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O88" t="n">
         <v>2.0</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>1.5</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21265,13 +21537,13 @@
         <v>#N/A</v>
       </c>
       <c r="D89" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F89" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G89" t="e">
         <v>#N/A</v>
@@ -21285,22 +21557,25 @@
       <c r="J89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L89" t="s">
         <v>225</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>222</v>
       </c>
-      <c r="M89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N89" t="n">
+      <c r="N89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O89" t="n">
         <v>2.0</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>1.5</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21315,42 +21590,45 @@
         <v>#N/A</v>
       </c>
       <c r="D90" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H90" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I90" t="s">
-        <v>462</v>
-      </c>
-      <c r="J90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K90" t="s">
+        <v>463</v>
+      </c>
+      <c r="J90" t="s">
+        <v>464</v>
+      </c>
+      <c r="K90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L90" t="s">
         <v>225</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>222</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>20.79658889770508</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>1.0</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>1.5</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21365,42 +21643,45 @@
         <v>#N/A</v>
       </c>
       <c r="D91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F91" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G91" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H91" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I91" t="s">
-        <v>462</v>
-      </c>
-      <c r="J91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="s">
+        <v>463</v>
+      </c>
+      <c r="J91" t="s">
+        <v>464</v>
+      </c>
+      <c r="K91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L91" t="s">
         <v>225</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>222</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>20.595001220703125</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>2.0</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>1.5</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21415,42 +21696,45 @@
         <v>#N/A</v>
       </c>
       <c r="D92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E92" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G92" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H92" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I92" t="s">
-        <v>462</v>
-      </c>
-      <c r="J92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K92" t="s">
+        <v>463</v>
+      </c>
+      <c r="J92" t="s">
+        <v>464</v>
+      </c>
+      <c r="K92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L92" t="s">
         <v>225</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>222</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>20.63773536682129</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>3.0</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>1.5</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21465,13 +21749,13 @@
         <v>#N/A</v>
       </c>
       <c r="D93" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
@@ -21485,22 +21769,25 @@
       <c r="J93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L93" t="s">
         <v>225</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>222</v>
       </c>
-      <c r="M93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N93" t="n">
+      <c r="N93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O93" t="n">
         <v>3.0</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>1.5</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21515,13 +21802,13 @@
         <v>#N/A</v>
       </c>
       <c r="D94" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G94" t="e">
         <v>#N/A</v>
@@ -21535,22 +21822,25 @@
       <c r="J94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L94" t="s">
         <v>225</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>222</v>
       </c>
-      <c r="M94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N94" t="n">
+      <c r="N94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O94" t="n">
         <v>3.0</v>
       </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
         <v>1.5</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21565,42 +21855,45 @@
         <v>#N/A</v>
       </c>
       <c r="D95" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F95" t="s">
         <v>216</v>
       </c>
       <c r="G95" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H95" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I95" t="s">
-        <v>460</v>
-      </c>
-      <c r="J95" t="n">
+        <v>461</v>
+      </c>
+      <c r="J95" t="s">
+        <v>464</v>
+      </c>
+      <c r="K95" t="n">
         <v>1.0</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>225</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>222</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>19.686359405517575</v>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>1.0</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>1.5</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21615,42 +21908,45 @@
         <v>#N/A</v>
       </c>
       <c r="D96" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E96" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F96" t="s">
         <v>216</v>
       </c>
       <c r="G96" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H96" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I96" t="s">
-        <v>460</v>
-      </c>
-      <c r="J96" t="n">
+        <v>461</v>
+      </c>
+      <c r="J96" t="s">
+        <v>464</v>
+      </c>
+      <c r="K96" t="n">
         <v>1.0</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>225</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>222</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>19.690755844116207</v>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>2.0</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>1.5</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21665,42 +21961,45 @@
         <v>#N/A</v>
       </c>
       <c r="D97" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F97" t="s">
         <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I97" t="s">
-        <v>460</v>
-      </c>
-      <c r="J97" t="n">
+        <v>461</v>
+      </c>
+      <c r="J97" t="s">
+        <v>464</v>
+      </c>
+      <c r="K97" t="n">
         <v>1.0</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>225</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>222</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>19.57819366455078</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>3.0</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>1.5</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>336</v>
       </c>
     </row>
@@ -21715,42 +22014,45 @@
         <v>#N/A</v>
       </c>
       <c r="D98" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F98" t="s">
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H98" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I98" t="s">
-        <v>461</v>
-      </c>
-      <c r="J98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K98" t="s">
+        <v>462</v>
+      </c>
+      <c r="J98" t="s">
+        <v>464</v>
+      </c>
+      <c r="K98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L98" t="s">
         <v>225</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>222</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>19.14062118530273</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>1.0</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>1.5</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21765,42 +22067,45 @@
         <v>#N/A</v>
       </c>
       <c r="D99" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F99" t="s">
         <v>217</v>
       </c>
       <c r="G99" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H99" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I99" t="s">
-        <v>461</v>
-      </c>
-      <c r="J99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K99" t="s">
+        <v>462</v>
+      </c>
+      <c r="J99" t="s">
+        <v>464</v>
+      </c>
+      <c r="K99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L99" t="s">
         <v>225</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>222</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>19.094337463378903</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>2.0</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>1.5</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21815,42 +22120,45 @@
         <v>#N/A</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E100" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F100" t="s">
         <v>217</v>
       </c>
       <c r="G100" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H100" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I100" t="s">
-        <v>461</v>
-      </c>
-      <c r="J100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K100" t="s">
+        <v>462</v>
+      </c>
+      <c r="J100" t="s">
+        <v>464</v>
+      </c>
+      <c r="K100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L100" t="s">
         <v>225</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>222</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>19.31419944763184</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>3.0</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>1.5</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21865,42 +22173,45 @@
         <v>#N/A</v>
       </c>
       <c r="D101" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E101" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F101" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G101" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H101" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I101" t="s">
-        <v>462</v>
-      </c>
-      <c r="J101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K101" t="s">
+        <v>463</v>
+      </c>
+      <c r="J101" t="s">
+        <v>464</v>
+      </c>
+      <c r="K101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="s">
         <v>225</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>222</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>20.831926345825195</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>1.0</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>1.5</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21915,42 +22226,45 @@
         <v>#N/A</v>
       </c>
       <c r="D102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E102" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G102" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H102" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I102" t="s">
-        <v>462</v>
-      </c>
-      <c r="J102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K102" t="s">
+        <v>463</v>
+      </c>
+      <c r="J102" t="s">
+        <v>464</v>
+      </c>
+      <c r="K102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L102" t="s">
         <v>225</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>222</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>21.40052604675293</v>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>2.0</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>1.5</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>210</v>
       </c>
     </row>
@@ -21965,42 +22279,45 @@
         <v>#N/A</v>
       </c>
       <c r="D103" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E103" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G103" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H103" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I103" t="s">
-        <v>462</v>
-      </c>
-      <c r="J103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K103" t="s">
+        <v>463</v>
+      </c>
+      <c r="J103" t="s">
+        <v>464</v>
+      </c>
+      <c r="K103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L103" t="s">
         <v>225</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>222</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>21.259674072265625</v>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>3.0</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>1.5</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>210</v>
       </c>
     </row>
@@ -22019,28 +22336,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s">
         <v>428</v>
       </c>
       <c r="C1" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>467</v>
+      <c r="I1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -22048,24 +22368,27 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" t="n">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" t="n">
         <v>3.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>15.882369995117188</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.001859856131088732</v>
       </c>
     </row>
@@ -22074,24 +22397,27 @@
         <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" t="n">
+        <v>448</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>28.58591079711914</v>
       </c>
-      <c r="H3" t="e">
+      <c r="I3" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22100,24 +22426,27 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" t="n">
+        <v>449</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.0</v>
       </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22126,24 +22455,27 @@
         <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" t="n">
+        <v>450</v>
+      </c>
+      <c r="C5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>3.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>15.984667460123697</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.06284410704058618</v>
       </c>
     </row>
@@ -22152,24 +22484,27 @@
         <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C6" t="n">
+        <v>451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>3.0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>16.81464385986328</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.07173138498044919</v>
       </c>
     </row>
@@ -22178,24 +22513,27 @@
         <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" t="n">
+        <v>452</v>
+      </c>
+      <c r="C7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>16.006302197774254</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.0738050485109675</v>
       </c>
     </row>
@@ -22204,24 +22542,27 @@
         <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" t="n">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>3.0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>16.030060132344563</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.0581562367593651</v>
       </c>
     </row>
@@ -22230,24 +22571,27 @@
         <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" t="n">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>17.50991153717041</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.007966765892923234</v>
       </c>
     </row>
@@ -22256,24 +22600,27 @@
         <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" t="n">
+        <v>447</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="n">
         <v>3.0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>24.060099601745605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.016223502103601416</v>
       </c>
     </row>
@@ -22282,24 +22629,27 @@
         <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" t="n">
+        <v>448</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="n">
         <v>6.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>6.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>37.7646484375</v>
       </c>
-      <c r="H11" t="e">
+      <c r="I11" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22308,24 +22658,27 @@
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
-      </c>
-      <c r="C12" t="n">
+        <v>449</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="n">
         <v>6.0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>5.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>38.50225639343262</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.007156197702356695</v>
       </c>
     </row>
@@ -22334,24 +22687,27 @@
         <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" t="n">
+        <v>450</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>24.40922673543294</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.06091868810837868</v>
       </c>
     </row>
@@ -22360,24 +22716,27 @@
         <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C14" t="n">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" t="n">
         <v>3.0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1.0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>26.00885581970215</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>7.79548110057496E-4</v>
       </c>
     </row>
@@ -22386,24 +22745,27 @@
         <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C15" t="n">
+        <v>452</v>
+      </c>
+      <c r="C15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>24.52516492207845</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.16208156387587183</v>
       </c>
     </row>
@@ -22412,24 +22774,27 @@
         <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C16" t="n">
+        <v>453</v>
+      </c>
+      <c r="C16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>3.0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>24.016351699829105</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.26994146026440025</v>
       </c>
     </row>
@@ -22438,24 +22803,27 @@
         <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" t="n">
+        <v>454</v>
+      </c>
+      <c r="C17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>26.322041829427086</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.3992177307152278</v>
       </c>
     </row>
@@ -22464,24 +22832,27 @@
         <v>221</v>
       </c>
       <c r="B18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C18" t="n">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" t="n">
         <v>3.0</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>17.823904991149902</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.025057481551484805</v>
       </c>
     </row>
@@ -22490,24 +22861,27 @@
         <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C19" t="n">
+        <v>448</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>26.615196228027344</v>
       </c>
-      <c r="H19" t="e">
+      <c r="I19" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22516,24 +22890,27 @@
         <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C20" t="n">
+        <v>449</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.0</v>
       </c>
-      <c r="G20" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22542,24 +22919,27 @@
         <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
-      </c>
-      <c r="C21" t="n">
+        <v>450</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>17.9902826944987</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.03024176547836419</v>
       </c>
     </row>
@@ -22568,24 +22948,27 @@
         <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C22" t="n">
+        <v>451</v>
+      </c>
+      <c r="C22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
         <v>3.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>19.226727803548176</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0.053599468105835615</v>
       </c>
     </row>
@@ -22594,24 +22977,27 @@
         <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
-      </c>
-      <c r="C23" t="n">
+        <v>452</v>
+      </c>
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>18.01806195576986</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.04646429506159956</v>
       </c>
     </row>
@@ -22620,24 +23006,27 @@
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>452</v>
-      </c>
-      <c r="C24" t="n">
+        <v>453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" t="n">
         <v>3.0</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>1.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>2.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>17.517354011535645</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.0015415631311344602</v>
       </c>
     </row>
@@ -22646,24 +23035,27 @@
         <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" t="n">
+        <v>454</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" t="n">
         <v>3.0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>2.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>20.28189754486084</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0.023088380789055837</v>
       </c>
     </row>
@@ -22672,24 +23064,27 @@
         <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
-      </c>
-      <c r="C26" t="n">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" t="n">
         <v>3.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>2.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>19.473417282104492</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.020591938658058563</v>
       </c>
     </row>
@@ -22698,24 +23093,27 @@
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>447</v>
-      </c>
-      <c r="C27" t="n">
+        <v>448</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
       </c>
       <c r="E27" t="n">
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.0</v>
       </c>
-      <c r="G27" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22724,24 +23122,27 @@
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>448</v>
-      </c>
-      <c r="C28" t="n">
+        <v>449</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.0</v>
       </c>
-      <c r="G28" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -22750,24 +23151,27 @@
         <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>449</v>
-      </c>
-      <c r="C29" t="n">
+        <v>450</v>
+      </c>
+      <c r="C29" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.0</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>19.55420430501302</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0.260543894679319</v>
       </c>
     </row>
@@ -22776,24 +23180,27 @@
         <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" t="n">
+        <v>451</v>
+      </c>
+      <c r="C30" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>20.676441828409832</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.10622165742582965</v>
       </c>
     </row>
@@ -22802,24 +23209,27 @@
         <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
-      </c>
-      <c r="C31" t="n">
+        <v>452</v>
+      </c>
+      <c r="C31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" t="n">
         <v>3.0</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1.0</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>2.0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>19.68855762481689</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.003108751546163544</v>
       </c>
     </row>
@@ -22828,24 +23238,27 @@
         <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
-      </c>
-      <c r="C32" t="n">
+        <v>453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
         <v>3.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>19.183052698771156</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0.11591008597756118</v>
       </c>
     </row>
@@ -22854,24 +23267,27 @@
         <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" t="n">
+        <v>454</v>
+      </c>
+      <c r="C33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" t="n">
         <v>3.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
         <v>3.0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>21.164042154947918</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>0.2961173799039377</v>
       </c>
     </row>
@@ -22890,28 +23306,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -23036,194 +23452,200 @@
         <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="F1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" t="n">
+        <v>497</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" t="n">
         <v>15.882369995117188</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>24.060099601745605</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>17.823904991149902</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>19.473417282104492</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.061966101328533085</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.23253266016642016</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0970784823099784</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.10757017135620117</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1.0438873991529403</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.1748956766004406</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1.0696052726068412</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1.0774120989721456</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1.0635380026343548</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1.1047049317375175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" t="s">
-        <v>494</v>
+        <v>448</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" t="s">
         <v>210</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>28.58591079711914</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>37.7646484375</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>26.615196228027344</v>
       </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.94433609644572</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24.292632261912026</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.92098347345988</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.580987453460693</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-12.64157470067342</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-13.472016175587974</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-8.694212754567463</v>
+      <c r="I3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.5649729044104208E-4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.800736722126604E-5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0024142440636091664</v>
+      <c r="Q3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T3" t="e">
         <v>#N/A</v>
@@ -23232,51 +23654,54 @@
         <v>#N/A</v>
       </c>
       <c r="V3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W3" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" t="s">
-        <v>494</v>
+        <v>449</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" t="s">
         <v>210</v>
       </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="n">
         <v>38.50225639343262</v>
       </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I4" t="n">
-        <v>15.94433609644572</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.292632261912026</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.92098347345988</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.580987453460693</v>
+      <c r="I4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N4" t="n">
-        <v>-14.209624131520592</v>
+      <c r="N4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O4" t="e">
         <v>#N/A</v>
@@ -23287,8 +23712,8 @@
       <c r="Q4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R4" t="n">
-        <v>5.2780914332170557E-5</v>
+      <c r="R4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S4" t="e">
         <v>#N/A</v>
@@ -23300,346 +23725,364 @@
         <v>#N/A</v>
       </c>
       <c r="V4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" t="s">
         <v>210</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>15.984667460123697</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24.40922673543294</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>17.9902826944987</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>19.55420430501302</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.04033136367797674</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.1165944735209159</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.06929922103881836</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.02678314844767371</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.972431569982792</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.9223623478815476</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.953100847649869</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1.0187380585474521</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.981040219006916</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.9401881085112223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E6" t="s">
         <v>210</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>16.81464385986328</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>26.00885581970215</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>19.226727803548176</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>20.676441828409832</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.8703077634175607</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-1.7162235577901228</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1.3057443300882952</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-1.0954543749491386</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.5470301427884179</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.3043443402837614</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.40451235424593807</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.4679887080620814</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.4695978941009829</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.6480956241646068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" t="n">
+        <v>497</v>
+      </c>
+      <c r="E7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" t="n">
         <v>16.006302197774254</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>24.52516492207845</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>18.01806195576986</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>19.68855762481689</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.061966101328533085</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.2325326601664237</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-0.0970784823099784</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.10757017135619762</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.9579577268692461</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.851139398940931</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.9349243366787082</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.9281499631886494</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.9402578916061559</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.9052190963130424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" t="s">
         <v>210</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>16.030060132344563</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>24.016351699829105</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>17.517354011535645</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>19.183052698771156</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.08572403589884203</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.2762805620829205</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.4036294619242362</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.3979347546895369</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.942311505534324</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>1.2110685785470068</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>1.3228316436040322</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>1.317620361528934</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>1.179858128303452</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>1.0264527145212223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" t="s">
         <v>210</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>17.50991153717041</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>26.322041829427086</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>20.28189754486084</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>21.164042154947918</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>15.94433609644572</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>24.292632261912026</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>17.92098347345988</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-1.5655754407246896</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-2.02940956751506</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-2.360914071400959</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-1.5830547014872245</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.33784292762069057</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.244955303463276</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.19466776705934602</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.3337744201325096</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.27999738570844146</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.8748485377586545</v>
       </c>
     </row>
@@ -23658,51 +24101,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="C1" t="s">
         <v>498</v>
       </c>
-      <c r="D1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K1" t="s">
-        <v>506</v>
-      </c>
-      <c r="L1" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.1047049317375175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9401881085112223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6480956241646068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9052190963130424</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0264527145212223</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8748485377586545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1047049317375175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9401881085112223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6480956241646068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9052190963130424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0264527145212223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8748485377586545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" t="s">
         <v>508</v>
       </c>
+      <c r="K1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>498</v>
+      </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D2" t="n">
         <v>2.0</v>
@@ -23723,24 +24389,24 @@
         <v>0.868</v>
       </c>
       <c r="J2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K2" t="n">
         <v>1.1326</v>
       </c>
       <c r="L2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D3" t="n">
         <v>2.0</v>
@@ -23761,24 +24427,24 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K3" t="n">
         <v>1.174</v>
       </c>
       <c r="L3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D4" t="n">
         <v>2.0</v>
@@ -23799,13 +24465,13 @@
         <v>0.75</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K4" t="n">
         <v>1.2154</v>
       </c>
       <c r="L4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
